--- a/data/prge_class.xlsx
+++ b/data/prge_class.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon/BrICC Clinic/BrICC Terms/Spring 2020/pilot_data_2020/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8A3154-0977-404E-98D8-7FFB5D2C9468}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B026BACB-167B-7043-ABE1-2746F330E905}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35420" yWindow="3220" windowWidth="28040" windowHeight="16300" xr2:uid="{576CC246-B260-2E4A-8EF5-BD1FA2531244}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
   <si>
     <t>Question</t>
   </si>
@@ -86,9 +86,6 @@
     <t>Easily bothered by lights/screens or noise</t>
   </si>
   <si>
-    <t>Not worse/not a problem</t>
-  </si>
-  <si>
     <t>A little worse</t>
   </si>
   <si>
@@ -96,13 +93,19 @@
   </si>
   <si>
     <t xml:space="preserve">A lot worse </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not worse </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A little worse </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -453,14 +456,14 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="53.6640625" customWidth="1"/>
     <col min="2" max="2" width="21.6640625" customWidth="1"/>
     <col min="3" max="3" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -471,158 +474,158 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/prge_class.xlsx
+++ b/data/prge_class.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon/BrICC Clinic/BrICC Terms/Spring 2020/pilot_data_2020/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B026BACB-167B-7043-ABE1-2746F330E905}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80D5164-B6B8-E04B-913A-0AC5A52F1B74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35420" yWindow="3220" windowWidth="28040" windowHeight="16300" xr2:uid="{576CC246-B260-2E4A-8EF5-BD1FA2531244}"/>
   </bookViews>
@@ -453,7 +453,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
